--- a/data.xlsx
+++ b/data.xlsx
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -2414,6 +2414,28 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Shree Raju</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>raju211@gmail.com</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7442273011</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
